--- a/myInfo/每日计划.xlsx
+++ b/myInfo/每日计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +256,10 @@
   </si>
   <si>
     <t>masyLayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -774,6 +778,9 @@
       <c r="B14" t="s">
         <v>25</v>
       </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
@@ -785,9 +792,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/myInfo/每日计划.xlsx
+++ b/myInfo/每日计划.xlsx
@@ -309,11 +309,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -781,28 +784,41 @@
       <c r="C14" t="s">
         <v>29</v>
       </c>
+      <c r="E14" s="3">
+        <v>20150629</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="E19" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E2:E8"/>
+    <mergeCell ref="E14:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/myInfo/每日计划.xlsx
+++ b/myInfo/每日计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,6 +260,22 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call,bind,apply ,propotype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min-width ,hack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖转</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -810,10 +826,26 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/myInfo/每日计划.xlsx
+++ b/myInfo/每日计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,15 +267,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>min-width ,hack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>click</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>min-width ,hack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拖转</t>
+    <t>整理github</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -784,7 +788,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -833,18 +837,26 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="E21">
+        <v>20150701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>18740454308</v>
       </c>
     </row>
   </sheetData>

--- a/myInfo/每日计划.xlsx
+++ b/myInfo/每日计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,23 +263,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>拖转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理github</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min-width ,hack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>call,bind,apply ,propotype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>min-width ,hack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拖转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理github</t>
+    <t>模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片预加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -788,7 +800,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -831,24 +843,24 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>20150701</v>
@@ -857,6 +869,21 @@
     <row r="24" spans="1:5">
       <c r="A24">
         <v>18740454308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
